--- a/docs/oncocore-TNMPathologicRegionalNodesClassification.xlsx
+++ b/docs/oncocore-TNMPathologicRegionalNodesClassification.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3192" uniqueCount="466">
   <si>
     <t>Path</t>
   </si>
@@ -670,16 +670,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>cancerstagesuffix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-CancerStageSuffix-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A suffix used in conjuction with certain cancer stage categories, usually qualifying how the category value was determined.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1069,7 +1059,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodySiteVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/shr/core/vs/BodyLocationVS</t>
   </si>
   <si>
     <t>OBX-20</t>
@@ -1105,7 +1095,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/TNMTumorStagingSystemVS</t>
+    <t>http://hl7.org/fhir/us/projectURL/oncocore/vs/CancerStagingSystemVS</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1613,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM100"/>
+  <dimension ref="A1:AM99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1646,7 +1636,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="69.265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="65.15625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
@@ -5218,38 +5208,40 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B35" t="s" s="2">
         <v>211</v>
       </c>
+      <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K35" s="2"/>
       <c r="L35" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>42</v>
@@ -5297,15 +5289,11 @@
       <c r="AD35" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE35" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="AE35" s="2"/>
       <c r="AF35" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG35" s="2"/>
       <c r="AH35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5316,7 +5304,7 @@
         <v>42</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>42</v>
@@ -5328,7 +5316,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5341,24 +5329,24 @@
         <v>42</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
       </c>
@@ -5417,18 +5405,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5436,32 +5424,32 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5486,13 +5474,13 @@
         <v>42</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>42</v>
@@ -5521,18 +5509,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5540,7 +5528,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>51</v>
@@ -5549,24 +5537,24 @@
         <v>42</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -5590,13 +5578,13 @@
         <v>42</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>42</v>
@@ -5625,18 +5613,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5644,7 +5632,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>51</v>
@@ -5656,21 +5644,21 @@
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -5694,13 +5682,13 @@
         <v>42</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>42</v>
@@ -5729,18 +5717,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5748,7 +5736,7 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>51</v>
@@ -5760,21 +5748,19 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>243</v>
+        <v>63</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>244</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5798,13 +5784,13 @@
         <v>42</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>42</v>
@@ -5833,29 +5819,29 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5867,15 +5853,17 @@
         <v>42</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5946,15 +5934,15 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>41</v>
@@ -5966,21 +5954,23 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -6016,16 +6006,14 @@
         <v>42</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="AE42" s="2"/>
       <c r="AF42" t="s" s="2">
@@ -6039,10 +6027,10 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>42</v>
@@ -6050,9 +6038,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6061,7 +6051,7 @@
         <v>51</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>42</v>
@@ -6076,17 +6066,13 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>158</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6122,14 +6108,16 @@
         <v>42</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
@@ -6143,10 +6131,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6156,15 +6144,13 @@
       <c r="A44" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="B44" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>51</v>
@@ -6176,16 +6162,16 @@
         <v>42</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6250,7 +6236,7 @@
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -6258,18 +6244,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>42</v>
@@ -6281,15 +6267,17 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
@@ -6360,18 +6348,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>42</v>
@@ -6380,27 +6368,29 @@
         <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>42</v>
+        <v>255</v>
       </c>
       <c r="R46" t="s" s="2">
         <v>42</v>
@@ -6453,10 +6443,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6464,7 +6454,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6487,26 +6477,24 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="R47" t="s" s="2">
         <v>42</v>
@@ -6559,10 +6547,10 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6570,7 +6558,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6593,24 +6581,24 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>42</v>
@@ -6663,10 +6651,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6674,7 +6662,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6697,24 +6685,24 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>42</v>
@@ -6767,10 +6755,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6778,7 +6766,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6801,17 +6789,19 @@
         <v>52</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6871,10 +6861,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6882,7 +6872,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6905,19 +6895,19 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>42</v>
@@ -6977,10 +6967,10 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>42</v>
@@ -6988,7 +6978,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6996,7 +6986,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>51</v>
@@ -7011,19 +7001,19 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>42</v>
@@ -7071,11 +7061,15 @@
       <c r="AD52" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE52" s="2"/>
+      <c r="AE52" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG52" s="2"/>
+      <c r="AG52" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH52" t="s" s="2">
         <v>42</v>
       </c>
@@ -7083,18 +7077,18 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>209</v>
+        <v>268</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>42</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7102,7 +7096,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>51</v>
@@ -7114,22 +7108,20 @@
         <v>42</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7177,15 +7169,11 @@
       <c r="AD53" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE53" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="AE53" s="2"/>
       <c r="AF53" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG53" s="2"/>
       <c r="AH53" t="s" s="2">
         <v>42</v>
       </c>
@@ -7193,18 +7181,18 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7224,20 +7212,22 @@
         <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="N54" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>42</v>
@@ -7297,18 +7287,18 @@
         <v>42</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7331,20 +7321,18 @@
         <v>52</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
       </c>
@@ -7403,18 +7391,18 @@
         <v>42</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7425,7 +7413,7 @@
         <v>40</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -7437,18 +7425,18 @@
         <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>42</v>
       </c>
@@ -7507,18 +7495,18 @@
         <v>42</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7529,7 +7517,7 @@
         <v>40</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>42</v>
@@ -7541,18 +7529,16 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7576,13 +7562,11 @@
         <v>42</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>42</v>
@@ -7599,11 +7583,15 @@
       <c r="AD57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE57" s="2"/>
+      <c r="AE57" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG57" s="2"/>
+      <c r="AG57" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH57" t="s" s="2">
         <v>42</v>
       </c>
@@ -7611,18 +7599,18 @@
         <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>303</v>
+        <v>42</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>304</v>
+        <v>42</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>305</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7642,19 +7630,23 @@
         <v>42</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>42</v>
       </c>
@@ -7678,11 +7670,11 @@
         <v>42</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7699,26 +7691,22 @@
       <c r="AD58" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE58" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="AE58" s="2"/>
       <c r="AF58" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG58" s="2"/>
       <c r="AH58" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>42</v>
@@ -7726,11 +7714,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7752,16 +7740,14 @@
         <v>150</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -7788,9 +7774,11 @@
       <c r="W59" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="X59" s="2"/>
+      <c r="X59" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="Y59" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>42</v>
@@ -7813,16 +7801,16 @@
       </c>
       <c r="AG59" s="2"/>
       <c r="AH59" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>42</v>
@@ -7830,11 +7818,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7853,17 +7841,17 @@
         <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>42</v>
@@ -7888,13 +7876,13 @@
         <v>42</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>324</v>
+        <v>42</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>325</v>
+        <v>42</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>42</v>
@@ -7923,10 +7911,10 @@
         <v>42</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>42</v>
@@ -7934,7 +7922,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7945,7 +7933,7 @@
         <v>40</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>42</v>
@@ -7957,17 +7945,19 @@
         <v>42</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="N61" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -7992,13 +7982,11 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8015,11 +8003,15 @@
       <c r="AD61" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE61" s="2"/>
+      <c r="AE61" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG61" s="2"/>
+      <c r="AG61" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH61" t="s" s="2">
         <v>42</v>
       </c>
@@ -8027,10 +8019,10 @@
         <v>42</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
@@ -8038,7 +8030,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8049,7 +8041,7 @@
         <v>40</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>42</v>
@@ -8061,20 +8053,16 @@
         <v>42</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>335</v>
+        <v>62</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8098,11 +8086,13 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="X62" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y62" t="s" s="2">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -8119,15 +8109,11 @@
       <c r="AD62" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE62" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="AE62" s="2"/>
       <c r="AF62" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>51</v>
-      </c>
+      <c r="AG62" s="2"/>
       <c r="AH62" t="s" s="2">
         <v>42</v>
       </c>
@@ -8135,10 +8121,10 @@
         <v>42</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>341</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>342</v>
+        <v>64</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
@@ -8146,18 +8132,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>42</v>
@@ -8169,15 +8155,17 @@
         <v>42</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>42</v>
@@ -8248,11 +8236,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8268,21 +8256,23 @@
         <v>42</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>42</v>
       </c>
@@ -8341,10 +8331,10 @@
         <v>42</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>42</v>
@@ -8352,7 +8342,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8363,7 +8353,7 @@
         <v>40</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>42</v>
@@ -8375,19 +8365,19 @@
         <v>52</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>42</v>
@@ -8447,10 +8437,10 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>42</v>
@@ -8458,7 +8448,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8478,22 +8468,22 @@
         <v>42</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>205</v>
+        <v>345</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>206</v>
+        <v>346</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>208</v>
+        <v>348</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
@@ -8518,13 +8508,11 @@
         <v>42</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>42</v>
@@ -8553,10 +8541,10 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>209</v>
+        <v>350</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>210</v>
+        <v>351</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>42</v>
@@ -8564,7 +8552,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8575,7 +8563,7 @@
         <v>40</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>42</v>
@@ -8587,20 +8575,18 @@
         <v>42</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>150</v>
+        <v>353</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8624,32 +8610,38 @@
         <v>42</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X67" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="Z67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE67" s="2"/>
       <c r="AF67" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG67" s="2"/>
+      <c r="AG67" t="s" s="2">
+        <v>51</v>
+      </c>
       <c r="AH67" t="s" s="2">
         <v>42</v>
       </c>
@@ -8657,10 +8649,10 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>42</v>
@@ -8668,7 +8660,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8691,16 +8683,16 @@
         <v>42</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -8750,7 +8742,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8765,10 +8757,10 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>42</v>
@@ -8776,7 +8768,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8799,18 +8791,20 @@
         <v>42</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
       </c>
@@ -8858,25 +8852,25 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>42</v>
+        <v>372</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>42</v>
@@ -8884,7 +8878,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8895,7 +8889,7 @@
         <v>40</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>42</v>
@@ -8907,20 +8901,16 @@
         <v>42</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>42</v>
       </c>
@@ -8967,26 +8957,22 @@
       <c r="AD70" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE70" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="AE70" s="2"/>
       <c r="AF70" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG70" s="2"/>
       <c r="AH70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>375</v>
+        <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>377</v>
+        <v>64</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>42</v>
@@ -8994,18 +8980,18 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>42</v>
@@ -9017,15 +9003,17 @@
         <v>42</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9096,11 +9084,11 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9113,7 +9101,7 @@
         <v>42</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>42</v>
@@ -9122,10 +9110,10 @@
         <v>67</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>69</v>
+        <v>379</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>70</v>
@@ -9192,7 +9180,7 @@
         <v>42</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>42</v>
@@ -9204,36 +9192,34 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>67</v>
+        <v>381</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>42</v>
@@ -9287,16 +9273,16 @@
       </c>
       <c r="AG73" s="2"/>
       <c r="AH73" t="s" s="2">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>42</v>
@@ -9304,7 +9290,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9327,13 +9313,13 @@
         <v>42</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9389,16 +9375,16 @@
       </c>
       <c r="AG74" s="2"/>
       <c r="AH74" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>42</v>
@@ -9406,7 +9392,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9429,16 +9415,20 @@
         <v>42</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>42</v>
       </c>
@@ -9462,13 +9452,13 @@
         <v>42</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>42</v>
@@ -9491,16 +9481,16 @@
       </c>
       <c r="AG75" s="2"/>
       <c r="AH75" t="s" s="2">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>42</v>
@@ -9508,7 +9498,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9531,19 +9521,17 @@
         <v>42</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>42</v>
@@ -9568,13 +9556,13 @@
         <v>42</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>42</v>
@@ -9603,10 +9591,10 @@
         <v>42</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>42</v>
@@ -9614,7 +9602,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9637,18 +9625,16 @@
         <v>42</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>42</v>
       </c>
@@ -9707,10 +9693,10 @@
         <v>42</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>42</v>
@@ -9718,7 +9704,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9729,7 +9715,7 @@
         <v>40</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>42</v>
@@ -9738,19 +9724,23 @@
         <v>42</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>137</v>
+        <v>367</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9797,11 +9787,15 @@
       <c r="AD78" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE78" s="2"/>
+      <c r="AE78" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG78" s="2"/>
+      <c r="AG78" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH78" t="s" s="2">
         <v>42</v>
       </c>
@@ -9809,10 +9803,10 @@
         <v>42</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>42</v>
@@ -9820,7 +9814,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9831,7 +9825,7 @@
         <v>40</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>42</v>
@@ -9840,23 +9834,19 @@
         <v>42</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>413</v>
+        <v>62</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>42</v>
       </c>
@@ -9903,15 +9893,11 @@
       <c r="AD79" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE79" t="s" s="2">
-        <v>412</v>
-      </c>
+      <c r="AE79" s="2"/>
       <c r="AF79" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG79" s="2"/>
       <c r="AH79" t="s" s="2">
         <v>42</v>
       </c>
@@ -9919,10 +9905,10 @@
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>417</v>
+        <v>42</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>418</v>
+        <v>64</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>42</v>
@@ -9930,18 +9916,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>42</v>
@@ -9953,15 +9939,17 @@
         <v>42</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M80" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>42</v>
@@ -10032,11 +10020,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10049,7 +10037,7 @@
         <v>42</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>42</v>
@@ -10058,10 +10046,10 @@
         <v>67</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>69</v>
+        <v>379</v>
       </c>
       <c r="M81" t="s" s="2">
         <v>70</v>
@@ -10128,7 +10116,7 @@
         <v>42</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>42</v>
@@ -10136,47 +10124,49 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>215</v>
+        <v>420</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>42</v>
@@ -10194,13 +10184,13 @@
         <v>42</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>42</v>
+        <v>426</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>42</v>
@@ -10229,10 +10219,10 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>125</v>
+        <v>427</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>42</v>
@@ -10240,7 +10230,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10248,7 +10238,7 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>51</v>
@@ -10263,26 +10253,22 @@
         <v>42</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>104</v>
+        <v>429</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P83" s="2"/>
       <c r="Q83" t="s" s="2">
-        <v>427</v>
+        <v>42</v>
       </c>
       <c r="R83" t="s" s="2">
         <v>42</v>
@@ -10300,13 +10286,13 @@
         <v>42</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>428</v>
+        <v>42</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>429</v>
+        <v>42</v>
       </c>
       <c r="Z83" t="s" s="2">
         <v>42</v>
@@ -10335,10 +10321,10 @@
         <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>42</v>
@@ -10346,7 +10332,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10354,10 +10340,10 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>42</v>
@@ -10366,19 +10352,23 @@
         <v>42</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>432</v>
+        <v>367</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10425,11 +10415,15 @@
       <c r="AD84" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE84" s="2"/>
+      <c r="AE84" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG84" s="2"/>
+      <c r="AG84" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AH84" t="s" s="2">
         <v>42</v>
       </c>
@@ -10437,10 +10431,10 @@
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>42</v>
+        <v>437</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>42</v>
@@ -10448,7 +10442,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10459,7 +10453,7 @@
         <v>40</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>42</v>
@@ -10468,23 +10462,19 @@
         <v>42</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>437</v>
+        <v>62</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>42</v>
       </c>
@@ -10531,15 +10521,11 @@
       <c r="AD85" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE85" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="AE85" s="2"/>
       <c r="AF85" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG85" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="AG85" s="2"/>
       <c r="AH85" t="s" s="2">
         <v>42</v>
       </c>
@@ -10547,10 +10533,10 @@
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>440</v>
+        <v>42</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>441</v>
+        <v>64</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>42</v>
@@ -10558,18 +10544,18 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>42</v>
@@ -10581,15 +10567,17 @@
         <v>42</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>42</v>
@@ -10660,11 +10648,11 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10677,7 +10665,7 @@
         <v>42</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>42</v>
@@ -10686,10 +10674,10 @@
         <v>67</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>69</v>
+        <v>379</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>70</v>
@@ -10756,7 +10744,7 @@
         <v>42</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>42</v>
@@ -10764,41 +10752,41 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H88" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="I88" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J88" t="s" s="2">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>215</v>
+        <v>443</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="M88" s="2"/>
+      <c r="N88" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>42</v>
       </c>
@@ -10822,13 +10810,13 @@
         <v>42</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -10851,24 +10839,24 @@
       </c>
       <c r="AG88" s="2"/>
       <c r="AH88" t="s" s="2">
-        <v>42</v>
+        <v>445</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>42</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10876,7 +10864,7 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>51</v>
@@ -10891,17 +10879,19 @@
         <v>52</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>150</v>
+        <v>447</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M89" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="N89" t="s" s="2">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>42</v>
@@ -10926,13 +10916,13 @@
         <v>42</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>245</v>
+        <v>42</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>42</v>
@@ -10955,24 +10945,24 @@
       </c>
       <c r="AG89" s="2"/>
       <c r="AH89" t="s" s="2">
-        <v>448</v>
+        <v>42</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>247</v>
+        <v>451</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>248</v>
+        <v>452</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10992,22 +10982,22 @@
         <v>42</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>453</v>
+        <v>312</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>42</v>
@@ -11032,13 +11022,11 @@
         <v>42</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>42</v>
@@ -11061,16 +11049,16 @@
       </c>
       <c r="AG90" s="2"/>
       <c r="AH90" t="s" s="2">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>454</v>
+        <v>125</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>455</v>
+        <v>315</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>42</v>
@@ -11089,7 +11077,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>42</v>
@@ -11101,19 +11089,19 @@
         <v>42</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>150</v>
+        <v>367</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>457</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>458</v>
+        <v>370</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>315</v>
+        <v>371</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>42</v>
@@ -11138,11 +11126,13 @@
         <v>42</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="X91" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="Y91" t="s" s="2">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>42</v>
@@ -11165,16 +11155,16 @@
       </c>
       <c r="AG91" s="2"/>
       <c r="AH91" t="s" s="2">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>125</v>
+        <v>373</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>42</v>
@@ -11182,7 +11172,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11193,7 +11183,7 @@
         <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>42</v>
@@ -11205,20 +11195,16 @@
         <v>42</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>460</v>
+        <v>62</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>42</v>
       </c>
@@ -11277,10 +11263,10 @@
         <v>42</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>376</v>
+        <v>42</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>377</v>
+        <v>64</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>42</v>
@@ -11288,18 +11274,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>42</v>
@@ -11311,15 +11297,17 @@
         <v>42</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M93" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>42</v>
@@ -11390,11 +11378,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>66</v>
+        <v>378</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11407,7 +11395,7 @@
         <v>42</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>42</v>
@@ -11416,10 +11404,10 @@
         <v>67</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>69</v>
+        <v>379</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>70</v>
@@ -11486,7 +11474,7 @@
         <v>42</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>42</v>
@@ -11494,40 +11482,38 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>381</v>
+        <v>42</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>67</v>
+        <v>381</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>42</v>
@@ -11581,16 +11567,16 @@
       </c>
       <c r="AG95" s="2"/>
       <c r="AH95" t="s" s="2">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>42</v>
@@ -11598,7 +11584,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11621,13 +11607,13 @@
         <v>42</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -11683,16 +11669,16 @@
       </c>
       <c r="AG96" s="2"/>
       <c r="AH96" t="s" s="2">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>42</v>
@@ -11700,7 +11686,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11723,16 +11709,20 @@
         <v>42</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
       </c>
@@ -11756,13 +11746,13 @@
         <v>42</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>42</v>
+        <v>396</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>42</v>
+        <v>397</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>42</v>
@@ -11785,16 +11775,16 @@
       </c>
       <c r="AG97" s="2"/>
       <c r="AH97" t="s" s="2">
-        <v>387</v>
+        <v>42</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>42</v>
@@ -11802,7 +11792,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11825,19 +11815,17 @@
         <v>42</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>42</v>
@@ -11862,13 +11850,13 @@
         <v>42</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>399</v>
+        <v>42</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>42</v>
@@ -11897,10 +11885,10 @@
         <v>42</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>401</v>
+        <v>42</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>327</v>
+        <v>404</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>42</v>
@@ -11908,7 +11896,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11931,18 +11919,16 @@
         <v>42</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>403</v>
+        <v>137</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" t="s" s="2">
-        <v>406</v>
-      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
         <v>42</v>
       </c>
@@ -12001,119 +11987,17 @@
         <v>42</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>42</v>
+        <v>385</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE100" s="2"/>
-      <c r="AF100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG100" s="2"/>
-      <c r="AH100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AL100" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL100">
+  <autoFilter ref="A1:AL99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12123,7 +12007,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI99">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
